--- a/biology/Médecine/Péristaltisme/Péristaltisme.xlsx
+++ b/biology/Médecine/Péristaltisme/Péristaltisme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>P%C3%A9ristaltisme</t>
+          <t>Péristaltisme</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">On appelle péristaltisme l'ensemble des contractions musculaires (« mouvements péristaltiques ») permettant la progression d'un contenu à l'intérieur d'un organe creux. Le mot dérive du néo-latin et provient du grec peristallein, « entourer ».
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>P%C3%A9ristaltisme</t>
+          <t>Péristaltisme</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Péristaltisme du tube digestif</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Concernant le tube digestif, il s'agit de la progression du bol alimentaire de la bouche (plus précisément du pharynx) jusqu'au rectum (anus). Il est unidirectionnel : on dit que la progression se fait dans le sens oral-aboral. Le tube digestif est caractérisé par une tunique musculaire, constituée de muscles lisses disposés en deux faisceaux : une couche circulaire interne et une couche longitudinale externe. Ces deux couches sont des faisceaux de fibres unitaires sur le plan physiologique, signifiant que toutes les fibres au sein d'un faisceau sont interconnectées par des jonctions communicantes et peuvent ainsi coordonner leur activité, de façon à se contracter en même temps, à l'unisson. De même, elles peuvent ne se contracter que sur un petit tronçon du tube digestif. 
 Le tube digestif est donc doué d'une mobilité digestive qui est due à cette tunique musculeuse de la paroi. Le tube digestif est donc caractérisé par plusieurs mouvements, avec des caractéristiques physiologiques différentes : on distingue (1) les mouvements propulsifs, qui font progresser le bol alimentaire dans le sens oral-aboral (péristaltisme, complexe moteur migrant, mouvements de masses), et (2) les mouvements de brassage, qui permettent la segmentation du bol et son mélange aux enzymes digestives (segmentation). 
@@ -526,7 +540,7 @@
 La principale thérapie demeure l’usage de laxatifs qui restent le traitement de première ligne. L'anthraquinone contenu dans l'aloès, les feuilles de séné, le rhizome de la rhubarbe, est utilisé comme laxatif à partir d'un seuil de 30 mg à 36 mg par jour. L'anthraquinone et ses dérivés actifs (glucosides d'anthraquinone) augmentent les mouvements péristaltiques du côlon (voir glycoside). 
 Les glucosides d’anthraquinone se transforment dans le côlon en sennosides. Ces derniers sont hydrophiles et réduisent l’absorption de l’eau en vue d’avoir un bol fécal fluide. Ils évitent par conséquent la formation de selles grumeleuses. Au-delà du seuil de 30  à   36 mg par jour de sennosides, les selles tendent à devenir très molles ou liquides.
 Mise en garde : une utilisation prolongée au-delà de huit semaines, ou un abus mène à un mélanisme du côlon, dû à la libération de lipofuscine (présente dans les histiocytes et mastocytes) dans le côlon.  
-La sérotonine est un médiateur du péristaltisme intestinal[1]. Quand la sérotonine baisse le transit des aliments dans l'intestin grêle et le colon est plus lent mais la vidange gastrique est plus rapide et il y a moins d’inflammation intestinale[2],[3]. Quand la sérotonine augmente, le transit des aliments dans l'intestin grêle et le colon est plus rapide mais la vidange gastrique est plus lente et l’inflammation intestinale est augmentée.  
+La sérotonine est un médiateur du péristaltisme intestinal. Quand la sérotonine baisse le transit des aliments dans l'intestin grêle et le colon est plus lent mais la vidange gastrique est plus rapide et il y a moins d’inflammation intestinale,. Quand la sérotonine augmente, le transit des aliments dans l'intestin grêle et le colon est plus rapide mais la vidange gastrique est plus lente et l’inflammation intestinale est augmentée.  
 </t>
         </is>
       </c>
@@ -537,7 +551,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>P%C3%A9ristaltisme</t>
+          <t>Péristaltisme</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -555,7 +569,9 @@
           <t>Autres organes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On rencontre également le péristaltisme dans les oviductes (dans le cadre de la progression des spermatozoïdes vers l'ovocyte), l'uretère et d'autres organes tubulaires.
 </t>
